--- a/data/ling-xiaoyu-tekken-8-frame-data.xlsx
+++ b/data/ling-xiaoyu-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -552,15 +544,11 @@
       <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -582,15 +570,11 @@
       <c r="D5" t="n">
         <v>16</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+14 (+5)</t>
-        </is>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -616,15 +600,11 @@
       <c r="D6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -650,15 +630,11 @@
       <c r="D7" t="n">
         <v>20</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -680,15 +656,11 @@
       <c r="D8" t="n">
         <v>29</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -714,15 +686,11 @@
       <c r="D9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -744,15 +712,11 @@
       <c r="D10" t="n">
         <v>19</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -778,15 +742,11 @@
       <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -812,15 +772,11 @@
       <c r="D12" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -846,15 +802,11 @@
       <c r="D13" t="n">
         <v>14</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -876,15 +828,11 @@
       <c r="D14" t="n">
         <v>23</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-1c</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -910,15 +858,11 @@
       <c r="D15" t="n">
         <v>11</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -944,15 +888,11 @@
       <c r="D16" t="n">
         <v>18</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -974,15 +914,11 @@
       <c r="D17" t="n">
         <v>19</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+19 (+10)</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -1008,15 +944,11 @@
       <c r="D18" t="n">
         <v>25</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+15 (-2)</t>
-        </is>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -1042,15 +974,11 @@
       <c r="D19" t="n">
         <v>21</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1076,15 +1004,11 @@
       <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1110,15 +1034,11 @@
       <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1140,15 +1060,11 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+13 (+4)</t>
-        </is>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1174,15 +1090,11 @@
       <c r="D23" t="n">
         <v>25</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1208,15 +1120,11 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-33</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E24" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1238,15 +1146,11 @@
       <c r="D25" t="n">
         <v>12</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1284,15 +1188,11 @@
       <c r="D27" t="n">
         <v>19</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E27" t="n">
+        <v>12</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1318,15 +1218,11 @@
       <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+42 (+32)</t>
-        </is>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>42</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1364,15 +1260,11 @@
       <c r="D30" t="n">
         <v>18</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1394,15 +1286,11 @@
       <c r="D31" t="n">
         <v>28</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1444,15 +1332,11 @@
       <c r="D33" t="n">
         <v>15</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+27 (+17)</t>
-        </is>
+      <c r="E33" t="n">
+        <v>17</v>
+      </c>
+      <c r="F33" t="n">
+        <v>27</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1474,15 +1358,11 @@
       <c r="D34" t="n">
         <v>24</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1508,15 +1388,11 @@
       <c r="D35" t="n">
         <v>15</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E35" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1542,15 +1418,11 @@
       <c r="D36" t="n">
         <v>16</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1576,15 +1448,11 @@
       <c r="D37" t="n">
         <v>23</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1606,15 +1474,11 @@
       <c r="D38" t="n">
         <v>14</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+29</t>
-        </is>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1640,15 +1504,11 @@
       <c r="D39" t="n">
         <v>12</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1670,15 +1530,11 @@
       <c r="D40" t="n">
         <v>15</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+29 (+19)</t>
-        </is>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>29</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1695,10 +1551,8 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F41" t="n">
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1720,15 +1574,11 @@
       <c r="D42" t="n">
         <v>15</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -1754,15 +1604,11 @@
       <c r="D43" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1784,15 +1630,11 @@
       <c r="D44" t="n">
         <v>18</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E44" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1838,15 +1680,11 @@
       <c r="D46" t="n">
         <v>13</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E46" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1868,15 +1706,11 @@
       <c r="D47" t="n">
         <v>27</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
+      <c r="E47" t="n">
+        <v>14</v>
+      </c>
+      <c r="F47" t="n">
+        <v>40</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -1903,10 +1737,8 @@
         <v>12</v>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1932,15 +1764,11 @@
       <c r="D49" t="n">
         <v>16</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1970,15 +1798,11 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2000,15 +1824,11 @@
       <c r="D51" t="n">
         <v>24</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E51" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" t="n">
+        <v>17</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
@@ -2034,15 +1854,11 @@
       <c r="D52" t="n">
         <v>17</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E52" t="n">
+        <v>13</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2068,15 +1884,11 @@
       <c r="D53" t="n">
         <v>23</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+19 (+10)</t>
-        </is>
+      <c r="E53" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2102,15 +1914,11 @@
       <c r="D54" t="n">
         <v>12</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2132,15 +1940,11 @@
       <c r="D55" t="n">
         <v>14</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2166,15 +1970,11 @@
       <c r="D56" t="n">
         <v>18</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E56" t="n">
+        <v>18</v>
+      </c>
+      <c r="F56" t="n">
+        <v>33</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2196,15 +1996,11 @@
       <c r="D57" t="n">
         <v>22</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2230,15 +2026,11 @@
       <c r="D58" t="n">
         <v>21</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E58" t="n">
+        <v>11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2260,15 +2052,11 @@
       <c r="D59" t="n">
         <v>16</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2298,15 +2086,11 @@
       <c r="D60" t="n">
         <v>18</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+10 (+1)</t>
-        </is>
+      <c r="E60" t="n">
+        <v>16</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2332,15 +2116,11 @@
       <c r="D61" t="n">
         <v>13</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E61" t="n">
+        <v>18</v>
+      </c>
+      <c r="F61" t="n">
+        <v>33</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2357,10 +2137,8 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+51 (+35)</t>
-        </is>
+      <c r="F62" t="n">
+        <v>51</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2382,15 +2160,11 @@
       <c r="D63" t="n">
         <v>16</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E63" t="n">
+        <v>12</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2428,15 +2202,11 @@
       <c r="D65" t="n">
         <v>19</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>20</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2466,15 +2236,11 @@
       <c r="D66" t="n">
         <v>24</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+73 (+57)</t>
-        </is>
+      <c r="E66" t="n">
+        <v>26</v>
+      </c>
+      <c r="F66" t="n">
+        <v>73</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2504,15 +2270,11 @@
       <c r="D67" t="n">
         <v>15</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E67" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2538,15 +2300,11 @@
       <c r="D68" t="n">
         <v>23</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2576,15 +2334,11 @@
       <c r="D69" t="n">
         <v>31</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E69" t="n">
+        <v>6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2610,15 +2364,11 @@
       <c r="D70" t="n">
         <v>31</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2660,15 +2410,11 @@
       <c r="D72" t="n">
         <v>12</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+40 (+30)</t>
-        </is>
+      <c r="E72" t="n">
+        <v>11</v>
+      </c>
+      <c r="F72" t="n">
+        <v>40</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2690,15 +2436,11 @@
       <c r="D73" t="n">
         <v>39</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+39</t>
-        </is>
+      <c r="E73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>39</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2724,15 +2466,11 @@
       <c r="D74" t="n">
         <v>33</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="E74" t="n">
+        <v>7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2754,15 +2492,11 @@
       <c r="D75" t="n">
         <v>19</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E75" t="n">
+        <v>12</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2788,15 +2522,11 @@
       <c r="D76" t="n">
         <v>17</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E76" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2838,15 +2568,11 @@
       <c r="D78" t="n">
         <v>11</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -2868,15 +2594,11 @@
       <c r="D79" t="n">
         <v>14</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E79" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -2918,15 +2640,11 @@
       <c r="D81" t="n">
         <v>25</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+26 (+17)</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>26</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -2952,15 +2670,11 @@
       <c r="D82" t="n">
         <v>12</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-4</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -2982,15 +2696,11 @@
       <c r="D83" t="n">
         <v>18</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+14 (+5)</t>
-        </is>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3048,15 +2758,11 @@
       <c r="D86" t="n">
         <v>18</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3082,15 +2788,11 @@
       <c r="D87" t="n">
         <v>15</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E87" t="n">
+        <v>8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3116,15 +2818,11 @@
       <c r="D88" t="n">
         <v>18</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E88" t="n">
+        <v>12</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3150,15 +2848,11 @@
       <c r="D89" t="n">
         <v>14</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -3180,15 +2874,11 @@
       <c r="D90" t="n">
         <v>14</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -3210,15 +2900,11 @@
       <c r="D91" t="n">
         <v>23</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+35 (+9)</t>
-        </is>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>35</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3244,15 +2930,11 @@
       <c r="D92" t="n">
         <v>12</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3278,15 +2960,11 @@
       <c r="D93" t="n">
         <v>29</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+71 (+55)</t>
-        </is>
+      <c r="E93" t="n">
+        <v>23</v>
+      </c>
+      <c r="F93" t="n">
+        <v>71</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3312,15 +2990,11 @@
       <c r="D94" t="n">
         <v>12</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3342,15 +3016,11 @@
       <c r="D95" t="n">
         <v>12</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+15 (+10)</t>
-        </is>
+      <c r="E95" t="n">
+        <v>16</v>
+      </c>
+      <c r="F95" t="n">
+        <v>15</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3376,15 +3046,11 @@
       <c r="D96" t="n">
         <v>16</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3406,15 +3072,11 @@
       <c r="D97" t="n">
         <v>20</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E97" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3440,15 +3102,11 @@
       <c r="D98" t="n">
         <v>26</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+17 (+8)</t>
-        </is>
+      <c r="E98" t="n">
+        <v>13</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3474,15 +3132,11 @@
       <c r="D99" t="n">
         <v>12</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3508,15 +3162,11 @@
       <c r="D100" t="n">
         <v>16</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -3538,15 +3188,11 @@
       <c r="D101" t="n">
         <v>22</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E101" t="n">
+        <v>9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3568,15 +3214,11 @@
       <c r="D102" t="n">
         <v>16</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E102" t="n">
+        <v>12</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3602,15 +3244,11 @@
       <c r="D103" t="n">
         <v>26</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+62 (+46)</t>
-        </is>
+      <c r="E103" t="n">
+        <v>22</v>
+      </c>
+      <c r="F103" t="n">
+        <v>62</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3658,15 +3296,11 @@
       <c r="D105" t="n">
         <v>20</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E105" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
@@ -3688,15 +3322,11 @@
       <c r="D106" t="n">
         <v>19</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3722,15 +3352,11 @@
       <c r="D107" t="n">
         <v>10</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -3752,15 +3378,11 @@
       <c r="D108" t="n">
         <v>11</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -3782,15 +3404,11 @@
       <c r="D109" t="n">
         <v>15</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E109" t="n">
+        <v>15</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-4</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -3812,15 +3430,11 @@
       <c r="D110" t="n">
         <v>18</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -3846,15 +3460,11 @@
       <c r="D111" t="n">
         <v>14</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3884,15 +3494,11 @@
       <c r="D112" t="n">
         <v>18</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E112" t="n">
+        <v>18</v>
+      </c>
+      <c r="F112" t="n">
+        <v>33</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -3918,15 +3524,11 @@
       <c r="D113" t="n">
         <v>12</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E113" t="n">
+        <v>15</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-4</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -3964,15 +3566,11 @@
       <c r="D115" t="n">
         <v>19</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E115" t="n">
+        <v>17</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-6</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -3994,15 +3592,11 @@
       <c r="D116" t="n">
         <v>21</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E116" t="n">
+        <v>11</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -4024,15 +3618,11 @@
       <c r="D117" t="n">
         <v>18</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E117" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -4054,15 +3644,11 @@
       <c r="D118" t="n">
         <v>28</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E118" t="n">
+        <v>6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4088,15 +3674,11 @@
       <c r="D119" t="n">
         <v>15</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E119" t="n">
+        <v>11</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -4118,15 +3700,11 @@
       <c r="D120" t="n">
         <v>14</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4152,15 +3730,11 @@
       <c r="D121" t="n">
         <v>19</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E121" t="n">
+        <v>8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4186,15 +3760,11 @@
       <c r="D122" t="n">
         <v>18</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
@@ -4220,15 +3790,11 @@
       <c r="D123" t="n">
         <v>21</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E123" t="n">
+        <v>12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4254,15 +3820,11 @@
       <c r="D124" t="n">
         <v>15</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4284,15 +3846,11 @@
       <c r="D125" t="n">
         <v>27</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+16 (+7)</t>
-        </is>
+      <c r="E125" t="n">
+        <v>12</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4318,15 +3876,11 @@
       <c r="D126" t="n">
         <v>14</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E126" t="n">
+        <v>5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4352,15 +3906,11 @@
       <c r="D127" t="n">
         <v>37</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+39</t>
-        </is>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>39</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4386,15 +3936,11 @@
       <c r="D128" t="n">
         <v>20</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E128" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,15 +3970,11 @@
       <c r="D129" t="n">
         <v>23</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+29 (+19)</t>
-        </is>
+      <c r="E129" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>29</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4458,15 +4000,11 @@
       <c r="D130" t="n">
         <v>15</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E130" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
@@ -4492,15 +4030,11 @@
       <c r="D131" t="n">
         <v>15</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E131" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -4526,15 +4060,11 @@
       <c r="D132" t="n">
         <v>16</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E132" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4560,15 +4090,11 @@
       <c r="D133" t="n">
         <v>15</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+24</t>
-        </is>
+      <c r="E133" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4614,15 +4140,11 @@
       <c r="D135" t="n">
         <v>18</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+22 (-13)</t>
-        </is>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>22</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
@@ -4649,10 +4171,8 @@
         <v>61</v>
       </c>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="F136" t="n">
+        <v>10</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -4674,15 +4194,11 @@
       <c r="D137" t="n">
         <v>20</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E137" t="n">
+        <v>12</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
@@ -4708,15 +4224,11 @@
       <c r="D138" t="n">
         <v>25</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -4738,15 +4250,11 @@
       <c r="D139" t="n">
         <v>14</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>26</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4776,15 +4284,11 @@
       <c r="D140" t="n">
         <v>12</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
@@ -4810,15 +4314,11 @@
       <c r="D141" t="n">
         <v>20</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E141" t="n">
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -4844,15 +4344,11 @@
       <c r="D142" t="n">
         <v>12</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -4878,15 +4374,11 @@
       <c r="D143" t="n">
         <v>18</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E143" t="n">
+        <v>13</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-2</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4912,15 +4404,11 @@
       <c r="D144" t="n">
         <v>17</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E144" t="n">
+        <v>11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -4942,15 +4430,11 @@
       <c r="D145" t="n">
         <v>27</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E145" t="n">
+        <v>12</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-1</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -4972,15 +4456,11 @@
       <c r="D146" t="n">
         <v>27</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+16 (+7)</t>
-        </is>
+      <c r="E146" t="n">
+        <v>12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
@@ -5006,15 +4486,11 @@
       <c r="D147" t="n">
         <v>20</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>36</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
@@ -5040,15 +4516,11 @@
       <c r="D148" t="n">
         <v>22</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+13 (-4)</t>
-        </is>
+      <c r="E148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
@@ -5074,15 +4546,11 @@
       <c r="D149" t="n">
         <v>33</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E149" t="n">
+        <v>7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -5104,15 +4572,11 @@
       <c r="D150" t="n">
         <v>12</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
@@ -5138,15 +4602,11 @@
       <c r="D151" t="n">
         <v>26</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E151" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5176,15 +4636,11 @@
       <c r="D152" t="n">
         <v>16</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+29 (+19)</t>
-        </is>
+      <c r="E152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F152" t="n">
+        <v>29</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -5206,15 +4662,11 @@
       <c r="D153" t="n">
         <v>20</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
@@ -5240,15 +4692,11 @@
       <c r="D154" t="n">
         <v>23</v>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E154" t="n">
+        <v>7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5274,15 +4722,11 @@
       <c r="D155" t="n">
         <v>23</v>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>+27 (+17)</t>
-        </is>
+      <c r="E155" t="n">
+        <v>18</v>
+      </c>
+      <c r="F155" t="n">
+        <v>27</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -5304,15 +4748,11 @@
       <c r="D156" t="n">
         <v>8</v>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+23 (+13)</t>
-        </is>
+      <c r="E156" t="n">
+        <v>8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
@@ -5338,15 +4778,11 @@
       <c r="D157" t="n">
         <v>15</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>+27</t>
-        </is>
+      <c r="E157" t="n">
+        <v>18</v>
+      </c>
+      <c r="F157" t="n">
+        <v>27</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -5368,15 +4804,11 @@
       <c r="D158" t="n">
         <v>12</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E158" t="n">
+        <v>7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -5398,15 +4830,11 @@
       <c r="D159" t="n">
         <v>22</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="E159" t="n">
+        <v>10</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
@@ -5428,15 +4856,11 @@
       <c r="D160" t="n">
         <v>14</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5462,15 +4886,11 @@
       <c r="D161" t="n">
         <v>22</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>+38 (+28)</t>
-        </is>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>38</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
@@ -5492,15 +4912,11 @@
       <c r="D162" t="n">
         <v>22</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E162" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5526,15 +4942,11 @@
       <c r="D163" t="n">
         <v>11</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+20 (+13)</t>
-        </is>
+      <c r="E163" t="n">
+        <v>10</v>
+      </c>
+      <c r="F163" t="n">
+        <v>20</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>

--- a/data/ling-xiaoyu-tekken-8-frame-data.xlsx
+++ b/data/ling-xiaoyu-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
@@ -657,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
@@ -743,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -773,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F13" t="n">
         <v>22</v>
@@ -829,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
@@ -859,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
@@ -889,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
@@ -915,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F17" t="n">
         <v>19</v>
@@ -945,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -975,7 +975,7 @@
         <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F19" t="n">
         <v>30</v>
@@ -1005,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F22" t="n">
         <v>13</v>
@@ -1091,7 +1091,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>-33</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F25" t="n">
         <v>8</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F27" t="n">
         <v>-1</v>
@@ -1219,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F28" t="n">
         <v>42</v>
@@ -1261,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1287,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
@@ -1333,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F33" t="n">
         <v>27</v>
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F35" t="n">
         <v>-3</v>
@@ -1419,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F37" t="n">
         <v>-1</v>
@@ -1475,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F38" t="n">
         <v>29</v>
@@ -1505,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F40" t="n">
         <v>29</v>
@@ -1575,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -1605,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F43" t="n">
         <v>4</v>
@@ -1631,7 +1631,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>8</v>
@@ -1681,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>27</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F47" t="n">
         <v>40</v>
@@ -1765,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
@@ -1799,7 +1799,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -1825,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F51" t="n">
         <v>17</v>
@@ -1855,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F52" t="n">
         <v>8</v>
@@ -1885,7 +1885,7 @@
         <v>23</v>
       </c>
       <c r="E53" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>19</v>
@@ -1941,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F55" t="n">
         <v>6</v>
@@ -1971,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F56" t="n">
         <v>33</v>
@@ -1997,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
@@ -2027,7 +2027,7 @@
         <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
@@ -2053,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F59" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F60" t="n">
         <v>10</v>
@@ -2117,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F61" t="n">
         <v>33</v>
@@ -2161,7 +2161,7 @@
         <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F63" t="n">
         <v>7</v>
@@ -2203,7 +2203,7 @@
         <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F65" t="n">
         <v>20</v>
@@ -2237,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F66" t="n">
         <v>73</v>
@@ -2271,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>23</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -2365,7 +2365,7 @@
         <v>31</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F70" t="n">
         <v>20</v>
@@ -2411,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F72" t="n">
         <v>40</v>
@@ -2437,7 +2437,7 @@
         <v>39</v>
       </c>
       <c r="E73" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
         <v>39</v>
@@ -2467,7 +2467,7 @@
         <v>33</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F74" t="n">
         <v>12</v>
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>17</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F76" t="n">
         <v>8</v>
@@ -2569,7 +2569,7 @@
         <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F78" t="n">
         <v>7</v>
@@ -2595,7 +2595,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
@@ -2671,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F82" t="n">
         <v>-4</v>
@@ -2697,7 +2697,7 @@
         <v>18</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F83" t="n">
         <v>14</v>
@@ -2759,7 +2759,7 @@
         <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F86" t="n">
         <v>5</v>
@@ -2789,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F87" t="n">
         <v>2</v>
@@ -2819,7 +2819,7 @@
         <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F88" t="n">
         <v>4</v>
@@ -2849,7 +2849,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -2875,7 +2875,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F90" t="n">
         <v>7</v>
@@ -2901,7 +2901,7 @@
         <v>23</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F91" t="n">
         <v>35</v>
@@ -2931,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>29</v>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F93" t="n">
         <v>71</v>
@@ -2991,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F94" t="n">
         <v>7</v>
@@ -3017,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F95" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F96" t="n">
         <v>4</v>
@@ -3073,7 +3073,7 @@
         <v>20</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F97" t="n">
         <v>5</v>
@@ -3103,7 +3103,7 @@
         <v>26</v>
       </c>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F98" t="n">
         <v>17</v>
@@ -3133,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F99" t="n">
         <v>20</v>
@@ -3163,7 +3163,7 @@
         <v>16</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
@@ -3189,7 +3189,7 @@
         <v>22</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F101" t="n">
         <v>8</v>
@@ -3215,7 +3215,7 @@
         <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F102" t="n">
         <v>7</v>
@@ -3245,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="E103" t="n">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="F103" t="n">
         <v>62</v>
@@ -3297,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="E105" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
         <v>2</v>
@@ -3323,7 +3323,7 @@
         <v>19</v>
       </c>
       <c r="E106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>13</v>
@@ -3353,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F107" t="n">
         <v>6</v>
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F108" t="n">
         <v>7</v>
@@ -3405,7 +3405,7 @@
         <v>15</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F109" t="n">
         <v>-4</v>
@@ -3461,7 +3461,7 @@
         <v>14</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F111" t="n">
         <v>6</v>
@@ -3495,7 +3495,7 @@
         <v>18</v>
       </c>
       <c r="E112" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F112" t="n">
         <v>33</v>
@@ -3525,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="E113" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F113" t="n">
         <v>-4</v>
@@ -3567,7 +3567,7 @@
         <v>19</v>
       </c>
       <c r="E115" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F115" t="n">
         <v>-6</v>
@@ -3593,7 +3593,7 @@
         <v>21</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>18</v>
       </c>
       <c r="E117" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F117" t="n">
         <v>4</v>
@@ -3645,7 +3645,7 @@
         <v>28</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
@@ -3675,7 +3675,7 @@
         <v>15</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F119" t="n">
         <v>7</v>
@@ -3701,7 +3701,7 @@
         <v>14</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F120" t="n">
         <v>5</v>
@@ -3731,7 +3731,7 @@
         <v>19</v>
       </c>
       <c r="E121" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -3761,7 +3761,7 @@
         <v>18</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F122" t="n">
         <v>20</v>
@@ -3791,7 +3791,7 @@
         <v>21</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F123" t="n">
         <v>22</v>
@@ -3821,7 +3821,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F124" t="n">
         <v>6</v>
@@ -3847,7 +3847,7 @@
         <v>27</v>
       </c>
       <c r="E125" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F125" t="n">
         <v>16</v>
@@ -3877,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F126" t="n">
         <v>6</v>
@@ -3907,7 +3907,7 @@
         <v>37</v>
       </c>
       <c r="E127" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F127" t="n">
         <v>39</v>
@@ -3937,7 +3937,7 @@
         <v>20</v>
       </c>
       <c r="E128" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F128" t="n">
         <v>13</v>
@@ -3971,7 +3971,7 @@
         <v>23</v>
       </c>
       <c r="E129" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F129" t="n">
         <v>29</v>
@@ -4001,7 +4001,7 @@
         <v>15</v>
       </c>
       <c r="E130" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>15</v>
       </c>
       <c r="E131" t="n">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="F131" t="n">
         <v>16</v>
@@ -4061,7 +4061,7 @@
         <v>16</v>
       </c>
       <c r="E132" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F132" t="n">
         <v>23</v>
@@ -4091,7 +4091,7 @@
         <v>15</v>
       </c>
       <c r="E133" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
         <v>24</v>
@@ -4141,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="E135" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F135" t="n">
         <v>22</v>
@@ -4195,7 +4195,7 @@
         <v>20</v>
       </c>
       <c r="E137" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F137" t="n">
         <v>7</v>
@@ -4225,7 +4225,7 @@
         <v>25</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F138" t="n">
         <v>30</v>
@@ -4251,7 +4251,7 @@
         <v>14</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F139" t="n">
         <v>26</v>
@@ -4285,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="E141" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>18</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F143" t="n">
         <v>-2</v>
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>27</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F145" t="n">
         <v>-1</v>
@@ -4457,7 +4457,7 @@
         <v>27</v>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4487,7 +4487,7 @@
         <v>20</v>
       </c>
       <c r="E147" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F147" t="n">
         <v>36</v>
@@ -4517,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="E148" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F148" t="n">
         <v>13</v>
@@ -4547,7 +4547,7 @@
         <v>33</v>
       </c>
       <c r="E149" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F149" t="n">
         <v>10</v>
@@ -4603,7 +4603,7 @@
         <v>26</v>
       </c>
       <c r="E151" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F151" t="n">
         <v>7</v>
@@ -4637,7 +4637,7 @@
         <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F152" t="n">
         <v>29</v>
@@ -4663,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F153" t="n">
         <v>4</v>
@@ -4693,7 +4693,7 @@
         <v>23</v>
       </c>
       <c r="E154" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F154" t="n">
         <v>5</v>
@@ -4723,7 +4723,7 @@
         <v>23</v>
       </c>
       <c r="E155" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F155" t="n">
         <v>27</v>
@@ -4749,7 +4749,7 @@
         <v>8</v>
       </c>
       <c r="E156" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F156" t="n">
         <v>23</v>
@@ -4779,7 +4779,7 @@
         <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F157" t="n">
         <v>27</v>
@@ -4805,7 +4805,7 @@
         <v>12</v>
       </c>
       <c r="E158" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F158" t="n">
         <v>4</v>
@@ -4831,7 +4831,7 @@
         <v>22</v>
       </c>
       <c r="E159" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F159" t="n">
         <v>12</v>
@@ -4857,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F160" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         <v>22</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F161" t="n">
         <v>38</v>
@@ -4913,7 +4913,7 @@
         <v>22</v>
       </c>
       <c r="E162" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F162" t="n">
         <v>6</v>
@@ -4943,7 +4943,7 @@
         <v>11</v>
       </c>
       <c r="E163" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F163" t="n">
         <v>20</v>
